--- a/账簿.xlsx
+++ b/账簿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>vans橘子汽水</t>
   </si>
@@ -115,6 +115,9 @@
     <t>妈过生（海底捞）</t>
   </si>
   <si>
+    <t>妈优衣库衣服</t>
+  </si>
+  <si>
     <t>奇迹健身体验卡</t>
   </si>
   <si>
@@ -149,6 +152,27 @@
   </si>
   <si>
     <t>nome U型枕*2</t>
+  </si>
+  <si>
+    <t>老家素几小风扇</t>
+  </si>
+  <si>
+    <t>老家摘水果器</t>
+  </si>
+  <si>
+    <t>老家电蚊拍</t>
+  </si>
+  <si>
+    <t>老家凉拖鞋*2</t>
+  </si>
+  <si>
+    <t>梨子套袋</t>
+  </si>
+  <si>
+    <t>乒乓球拍</t>
+  </si>
+  <si>
+    <t>土豆压你器+筷篓+案板</t>
   </si>
 </sst>
 </file>
@@ -156,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,6 +195,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -178,14 +238,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,60 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -277,38 +316,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,55 +347,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,127 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,8 +544,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,17 +595,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,7 +608,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,30 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -622,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,13 +1114,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.6666666666667" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.66666666666667"/>
@@ -1372,7 +1396,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:2">
+    <row r="29" ht="27" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" ht="28.8" spans="1:2">
+    <row r="30" ht="27" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1388,7 +1412,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" ht="28.8" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1401,28 +1425,31 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" ht="28.8" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" ht="28.8" spans="1:2">
+      <c r="B34">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1430,7 +1457,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1438,7 +1465,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1446,7 +1473,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1454,7 +1481,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1462,23 +1489,23 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" ht="28.8" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1486,7 +1513,71 @@
         <v>44</v>
       </c>
       <c r="B43">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
         <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/账簿.xlsx
+++ b/账簿.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2021年" sheetId="1" r:id="rId1"/>
+    <sheet name="2022年" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>日期</t>
   </si>
@@ -275,6 +276,18 @@
   </si>
   <si>
     <t>茶几木盘+塑料水杯</t>
+  </si>
+  <si>
+    <t>充话费30</t>
+  </si>
+  <si>
+    <t>红旗茅台*2</t>
+  </si>
+  <si>
+    <t>iPhone13 256 黑色</t>
+  </si>
+  <si>
+    <t>anker能量棒102+充电头32+京东京造保护套蓝色45</t>
   </si>
 </sst>
 </file>
@@ -282,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -293,13 +306,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,7 +318,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,15 +353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,14 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,22 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -426,7 +425,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,7 +440,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,31 +462,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,31 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,19 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,90 +643,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,15 +661,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +736,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -748,150 +761,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1218,15 +1237,15 @@
   <sheetPr/>
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77777777777778" customWidth="1"/>
+    <col min="3" max="3" width="8.775" customWidth="1"/>
     <col min="18" max="18" width="9.66666666666667"/>
   </cols>
   <sheetData>
@@ -1252,7 +1271,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1671,7 +1690,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="40" ht="28.8" spans="1:3">
+    <row r="40" ht="27" spans="1:3">
       <c r="A40">
         <v>7</v>
       </c>
@@ -1936,7 +1955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" ht="28.8" spans="1:3">
+    <row r="61" ht="27" spans="1:3">
       <c r="A61">
         <v>8</v>
       </c>
@@ -1980,7 +1999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" ht="28.8" spans="1:3">
+    <row r="65" ht="27" spans="1:3">
       <c r="A65">
         <v>8</v>
       </c>
@@ -2211,7 +2230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" ht="28.8" spans="1:3">
+    <row r="86" ht="27" spans="1:3">
       <c r="A86">
         <v>10</v>
       </c>
@@ -2240,4 +2259,86 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:3">
+      <c r="A7" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/账簿.xlsx
+++ b/账簿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="10275" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2021年" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>日期</t>
   </si>
@@ -288,6 +288,42 @@
   </si>
   <si>
     <t>anker能量棒102+充电头32+京东京造保护套蓝色45</t>
+  </si>
+  <si>
+    <t>匹克态极闪现3 电竞配色</t>
+  </si>
+  <si>
+    <t>舞东风农夫山泉一件</t>
+  </si>
+  <si>
+    <t>桂花乌龙袋泡茶</t>
+  </si>
+  <si>
+    <t>挪客月亮椅 红色</t>
+  </si>
+  <si>
+    <t>迪卡侬袜子白色*3双</t>
+  </si>
+  <si>
+    <t>迪卡侬500x篮球</t>
+  </si>
+  <si>
+    <t>优衣库Arismpolo衫 爸</t>
+  </si>
+  <si>
+    <t>万象城 奈雪 奶茶</t>
+  </si>
+  <si>
+    <t>乐山钵钵鸡 无骨鸡腿等</t>
+  </si>
+  <si>
+    <t>烧烤：五花肉28+碳15+矿泉水6L 12+菜（蘑菇4+土豆5+鸡腿12+泡面肠 16）</t>
+  </si>
+  <si>
+    <t>抖音充值 30</t>
+  </si>
+  <si>
+    <t>交个朋友  杨梅汁</t>
   </si>
 </sst>
 </file>
@@ -295,10 +331,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -310,15 +346,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,31 +382,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,8 +411,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,42 +451,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,6 +481,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -462,187 +498,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,24 +694,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,8 +736,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,16 +758,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,19 +775,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2264,13 +2300,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
@@ -2330,11 +2366,107 @@
       <c r="A7" s="2">
         <v>44587</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C7">
         <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="2:3">
+      <c r="B19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/账簿.xlsx
+++ b/账簿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10275" windowHeight="7710" activeTab="1"/>
+    <workbookView windowWidth="13125" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2021年" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>日期</t>
   </si>
@@ -324,6 +324,54 @@
   </si>
   <si>
     <t>交个朋友  杨梅汁</t>
+  </si>
+  <si>
+    <t>月熊  餐包</t>
+  </si>
+  <si>
+    <t>卤肉：鸡爪+鸭舌</t>
+  </si>
+  <si>
+    <t>天府三街：去青城山早餐：酸奶+巧克力奶+饼</t>
+  </si>
+  <si>
+    <t>青城山缆车+汽车</t>
+  </si>
+  <si>
+    <t>UR ：两条裤子 一件毛衣</t>
+  </si>
+  <si>
+    <t>酥小蒙 牛肉煎饼</t>
+  </si>
+  <si>
+    <t>雪柳枝</t>
+  </si>
+  <si>
+    <t>中海711早餐：鸡蛋饼+包子</t>
+  </si>
+  <si>
+    <t>下地铁：煎饼+辣条</t>
+  </si>
+  <si>
+    <t>尹记鱼火锅</t>
+  </si>
+  <si>
+    <t>打车去竹子卖车</t>
+  </si>
+  <si>
+    <t>红旗连锁：鲜奶</t>
+  </si>
+  <si>
+    <t>宜家：衣架两副、套碗*3、沥水篮、灯笼*2</t>
+  </si>
+  <si>
+    <t>宜家吃东西：鳕鱼天妇罗</t>
+  </si>
+  <si>
+    <t>温度计电池</t>
+  </si>
+  <si>
+    <t>给爷婆500</t>
   </si>
 </sst>
 </file>
@@ -333,8 +381,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -345,7 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -353,16 +400,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,44 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,6 +442,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,6 +484,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -498,19 +546,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,61 +672,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,13 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,79 +714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,28 +740,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,8 +773,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,35 +818,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,10 +845,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,137 +857,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +999,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2300,10 +2351,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2446,7 +2497,7 @@
       </c>
     </row>
     <row r="19" ht="40.5" spans="2:3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C19">
@@ -2469,7 +2520,195 @@
         <v>49</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44860</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:3">
+      <c r="A28" s="2">
+        <v>44863</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44864</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>44867</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>44868</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>44868</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>44870</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>44870</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>44871</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:3">
+      <c r="A38" s="4">
+        <v>44871</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4"/>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A38:A39"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
